--- a/data/function_reconstruction_with_fuzzy_noise_model.xlsx
+++ b/data/function_reconstruction_with_fuzzy_noise_model.xlsx
@@ -7,28 +7,53 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="params" sheetId="2" r:id="rId2"/>
-    <sheet name="noise_rec" sheetId="3" r:id="rId3"/>
-    <sheet name="a1_optimizer" sheetId="4" r:id="rId4"/>
+    <sheet name="x_granules" sheetId="1" r:id="rId1"/>
+    <sheet name="x_noise" sheetId="2" r:id="rId2"/>
+    <sheet name="y_granules" sheetId="3" r:id="rId3"/>
+    <sheet name="y_noise" sheetId="4" r:id="rId4"/>
+    <sheet name="data" sheetId="5" r:id="rId5"/>
+    <sheet name="ols_params" sheetId="6" r:id="rId6"/>
+    <sheet name="noise_rec" sheetId="7" r:id="rId7"/>
+    <sheet name="a1_optimizer" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>init_g</t>
+  </si>
+  <si>
+    <t>init_G+</t>
+  </si>
+  <si>
+    <t>adjusted_g</t>
+  </si>
+  <si>
+    <t>adjusted_G+</t>
+  </si>
+  <si>
+    <t>mes_g</t>
+  </si>
+  <si>
+    <t>x_noise</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>y_noise</t>
+  </si>
   <si>
     <t>x_true</t>
   </si>
   <si>
     <t>y_true</t>
-  </si>
-  <si>
-    <t>x_noise</t>
-  </si>
-  <si>
-    <t>y_noise</t>
   </si>
   <si>
     <t>x_err_true</t>
@@ -43,10 +68,10 @@
     <t>a_1</t>
   </si>
   <si>
-    <t>true</t>
+    <t>ols</t>
   </si>
   <si>
-    <t>ols</t>
+    <t>ols_with_errs</t>
   </si>
   <si>
     <t>x_err</t>
@@ -141,6 +166,178 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="x_granules.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="10972822" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="x_noise_distplot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="762000"/>
+          <a:ext cx="10972822" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="y_granules.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="10972822" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="y_noise_distplot.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="762000"/>
+          <a:ext cx="10972822" cy="4572009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,30 +625,6319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.6189533638868472</v>
+      </c>
+      <c r="D2">
+        <v>0.6926220832394784</v>
+      </c>
+      <c r="E2">
+        <v>0.5013648771610555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.01831563888873418</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.2684871819742415</v>
+      </c>
+      <c r="D3">
+        <v>1.146713610960068</v>
+      </c>
+      <c r="E3">
+        <v>0.7606915377616015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1.125351747192591E-07</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.1069773755174332</v>
+      </c>
+      <c r="D4">
+        <v>1.495037762278907</v>
+      </c>
+      <c r="E4">
+        <v>0.8826205641492265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2.31952283024357E-16</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.03292349048531655</v>
+      </c>
+      <c r="D5">
+        <v>1.847584606850489</v>
+      </c>
+      <c r="E5">
+        <v>0.9490445859872612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1.603810890548638E-28</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>2E-09</v>
+      </c>
+      <c r="D6">
+        <v>4.475502056349261</v>
+      </c>
+      <c r="E6">
+        <v>0.9990900818926297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D1100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1.528570899014935</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>-1.34645689349313</v>
+      </c>
+      <c r="C3">
+        <v>-0.008959029622102542</v>
+      </c>
+      <c r="D3">
+        <v>1.005682860215091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>-2.415232682920989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>-0.04814451237867812</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>-1.218453137290653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>-0.1948969082151737</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>0.4211786574282734</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2.254702456050115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-1.260936260878921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>-0.2669067874683337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-1.053559351699809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>0.3128176738353898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>-0.5101758324613147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>-1.374593097584653</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1.751825123643566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.2425670894089391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>0.5390925044170308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.4516225456706363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>0.3638330248542702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>-0.6059219260373273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>-0.8800587081331206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>-0.6898503627655386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>1.386403670478718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>-0.4503056775205254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>-0.3553872045596145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>1.131608892357014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>-0.7196216569861184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>0.1003273460381501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>-1.903405592686902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>1.215166145591819</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>0.7951656274159974</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.3685114625500243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.2791520697819893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.6419059414801004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.2298505167508597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>-0.4849095394759</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>-0.8560409491901995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.360957576958818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>-0.6800136070908588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>1.704938093462405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>0.8600981254836962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.704484512311239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>0.4845195739093213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>1.678177571525294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>1.349276342128861</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>-0.2191264547698923</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>-1.886978413934588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>-1.347166058569466</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>-0.2266236618990561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.9233731986134358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>-1.859791695470272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>-1.244609526014445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>1.069650174122554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>-0.2139918827126569</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>0.4564524730699637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>-1.43164898173603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>-0.1019957656179663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>-0.4117262422948415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>0.5624414467144887</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>-0.9414974558131465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>-0.2440805425861121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>-1.974363701129026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>-0.1095158020888206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>1.248403134872138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.03573415937978428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>-2.321001169927916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>1.052466980330868</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>0.6221920797038875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>-0.3005882486136451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>-1.320523756660826</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>-0.6259134909861702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1.276759264150351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>-0.218685439339166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>-0.2576349438659871</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>0.4338730119118891</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>0.4273921396354373</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>-1.880483587826982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>-0.07047509055762805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>-0.80474443229791</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>-0.1358440127406311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>-2.489825949152142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.2267418962428261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>0.6823820694840752</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>-0.3393226325355159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.001164900463608584</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>-1.015189152455432</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>-0.3887608107144825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>-0.2486491803772268</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>-0.7538824203751386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.001441307930009166</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>1.244937593328397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>1.032149261775871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>-0.9697312968741253</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>0.3085378698771885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>1.627540909645806</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>1.480407987012279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>-1.58501557156856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>0.3750774739028226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>-0.3218610299724488</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>-0.7284927218782773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>-0.7104696023478603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103">
+        <v>-0.581329533325002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104">
+        <v>-0.06433402547310266</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105">
+        <v>-0.5355529539955213</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106">
+        <v>-3.332261847276017</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>0.8827345907107559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108">
+        <v>-0.4417664743065627</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109">
+        <v>0.587595735058584</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110">
+        <v>0.4717700670083847</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111">
+        <v>-0.4038424428901315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112">
+        <v>0.1937056936163037</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113">
+        <v>-1.10608891033187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114">
+        <v>-2.396094321075511</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115">
+        <v>0.382118743207377</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116">
+        <v>1.28427272137283</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117">
+        <v>1.702612506008357</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118">
+        <v>0.694280310990264</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119">
+        <v>0.1106193900760655</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120">
+        <v>0.3955724267746082</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121">
+        <v>1.422301910573292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122">
+        <v>-0.4170981288796551</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123">
+        <v>-0.3722511608291951</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124">
+        <v>0.8596105596293151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125">
+        <v>-0.1712046457488524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126">
+        <v>-0.7066748850282304</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127">
+        <v>-0.4665405605960232</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>-0.2906132471506622</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129">
+        <v>-0.4570062702962218</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130">
+        <v>0.2967029804399602</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>0.1763816712142046</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132">
+        <v>0.1743394458396831</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133">
+        <v>0.05717840070350158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134">
+        <v>0.5266496641630503</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135">
+        <v>0.09717147149313689</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136">
+        <v>-0.08226287114698587</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137">
+        <v>-0.1000338821949922</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>-1.4527335303243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>2.009329822277395</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140">
+        <v>-0.144888087917185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141">
+        <v>-0.2629117684474266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142">
+        <v>-0.5828978526281688</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>0.3606494954142593</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>0.6242650974151287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145">
+        <v>-1.529781484245827</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146">
+        <v>0.6006856393425625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147">
+        <v>-0.8142621418530539</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148">
+        <v>0.6139347676741426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149">
+        <v>-0.9061518363754727</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150">
+        <v>2.068725459624331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>0.4226693019603876</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152">
+        <v>0.5823613341876608</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153">
+        <v>-0.3165652536940859</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154">
+        <v>1.647270156636442</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155">
+        <v>0.9973013794528347</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156">
+        <v>1.169407200597399</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157">
+        <v>1.001948616095455</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158">
+        <v>0.2211440603879481</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159">
+        <v>-1.26523843604352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160">
+        <v>-0.6395692493672827</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161">
+        <v>0.5154586769073772</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162">
+        <v>0.0454534525087678</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163">
+        <v>-0.2117614505307757</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164">
+        <v>0.3980352102909473</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165">
+        <v>2.318524910724797</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166">
+        <v>-1.34818188622423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167">
+        <v>0.2564905482530848</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168">
+        <v>-1.414965296793817</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169">
+        <v>0.1278549598372204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170">
+        <v>-0.7183623309187996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171">
+        <v>1.073979629475031</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172">
+        <v>1.172361871214491</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173">
+        <v>2.423507009292481</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174">
+        <v>-0.1788793544482831</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175">
+        <v>-0.2618958527727733</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176">
+        <v>-0.01643841986461786</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177">
+        <v>-1.133007763861125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178">
+        <v>-0.8495059233606154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179">
+        <v>-0.9828464179518409</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180">
+        <v>0.4705146736937469</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181">
+        <v>-0.1814722921427098</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182">
+        <v>-1.236890702918807</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183">
+        <v>0.8581496532886934</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184">
+        <v>0.7504610447393002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185">
+        <v>-0.3194862486179416</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186">
+        <v>0.7962284051575729</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187">
+        <v>-0.5455546511891106</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188">
+        <v>-0.5668537317498128</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189">
+        <v>-0.6063678423687087</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190">
+        <v>-0.1709195162516277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191">
+        <v>1.496440787164942</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192">
+        <v>-0.4063752222517714</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193">
+        <v>0.2505291179196613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194">
+        <v>0.1523148164063672</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195">
+        <v>0.4378011791772012</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196">
+        <v>-2.014127114633392</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197">
+        <v>0.8172216713545537</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198">
+        <v>0.9625492683326818</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199">
+        <v>1.170962899796298</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200">
+        <v>-0.01324525207150261</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201">
+        <v>-0.1865774627947871</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202">
+        <v>-0.08195560345329958</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203">
+        <v>-0.9251647568299869</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204">
+        <v>2.826721840427776</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205">
+        <v>1.088639482537039</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206">
+        <v>1.228363271450138</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207">
+        <v>1.438724342699652</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208">
+        <v>0.02071081873938013</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209">
+        <v>-1.205894099902755</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210">
+        <v>-0.1598991859297009</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211">
+        <v>-0.746566040177857</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212">
+        <v>0.4925209753374436</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213">
+        <v>1.638439651034076</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214">
+        <v>-0.3317156953143991</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215">
+        <v>-1.102079411429826</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216">
+        <v>-1.052791995706268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217">
+        <v>1.506178555924821</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218">
+        <v>0.2345030177419653</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219">
+        <v>1.52211726326605</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220">
+        <v>0.3205232752226512</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221">
+        <v>-0.5227288285324474</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222">
+        <v>1.124245727289377</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223">
+        <v>0.08438667878800066</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224">
+        <v>2.316946134740224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>1.352771516780052</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226">
+        <v>-1.008733884424425</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227">
+        <v>0.2030741087491117</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228">
+        <v>0.067563288072059</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229">
+        <v>-0.1829876920876754</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230">
+        <v>-1.256125921816429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231">
+        <v>-0.7087012718901932</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232">
+        <v>-0.04883033418892259</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233">
+        <v>0.02937998237003502</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234">
+        <v>-0.2624299970223735</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235">
+        <v>-0.5376872355903833</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236">
+        <v>1.696918961923121</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237">
+        <v>0.8772442641622878</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238">
+        <v>-0.9053498647287377</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239">
+        <v>-1.23327192008471</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240">
+        <v>-0.5606808481625327</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241">
+        <v>-0.3811164773631318</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242">
+        <v>0.1394684131982833</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243">
+        <v>0.4562791078702148</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244">
+        <v>-0.9632257865674255</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245">
+        <v>-0.2615634023416296</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246">
+        <v>1.009023547115374</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247">
+        <v>0.6166390521683861</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248">
+        <v>0.1233010254175965</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249">
+        <v>-0.8233805307192019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250">
+        <v>1.543105190410283</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251">
+        <v>2.194376860801552</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252">
+        <v>0.4072733738597684</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253">
+        <v>1.361331039944886</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254">
+        <v>-0.3491210519430821</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255">
+        <v>0.7832311451277046</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256">
+        <v>1.180607425422401</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257">
+        <v>1.032120586575893</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258">
+        <v>0.858066951299136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259">
+        <v>-0.6918045990093143</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260">
+        <v>-1.582125207194201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261">
+        <v>-1.040469912035518</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262">
+        <v>-0.1921568066353667</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263">
+        <v>-0.09413245223797885</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264">
+        <v>-0.6837142332075391</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265">
+        <v>-0.1872603961891257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266">
+        <v>1.9892914897364</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267">
+        <v>-0.3956268879612548</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268">
+        <v>-0.6660084804920844</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269">
+        <v>0.04903051040154413</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270">
+        <v>0.5239896406718898</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271">
+        <v>0.3866533803297873</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272">
+        <v>-0.5622234773764083</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273">
+        <v>-1.032170522846386</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274">
+        <v>-1.941377380146474</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275">
+        <v>-0.1752177703315115</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276">
+        <v>-0.2274709985450645</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277">
+        <v>0.9188642035721196</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278">
+        <v>-0.6549249893587463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279">
+        <v>1.223997337221058</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280">
+        <v>0.6506617145711412</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281">
+        <v>0.02840369465418868</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282">
+        <v>-0.2618340325656869</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283">
+        <v>0.7459204651672139</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284">
+        <v>0.8195618833190491</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285">
+        <v>2.622585173011005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286">
+        <v>-1.245050572556933</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287">
+        <v>-1.814117098830103</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288">
+        <v>0.1600387880571547</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289">
+        <v>-0.1755310865151823</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290">
+        <v>1.055856381954813</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291">
+        <v>-0.2838794440440676</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292">
+        <v>-1.616255008964526</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293">
+        <v>-1.175704939072599</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294">
+        <v>-0.7966411523599872</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295">
+        <v>-0.09225426284304057</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296">
+        <v>0.8846193680543221</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297">
+        <v>-1.050195648397635</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298">
+        <v>-1.473384363174794</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299">
+        <v>-0.3465161865774186</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300">
+        <v>-0.7876284044321975</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301">
+        <v>-1.079368350983175</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302">
+        <v>0.5581744222959434</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303">
+        <v>-0.7963261130660394</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304">
+        <v>1.63032025011886</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305">
+        <v>-0.3357611144153906</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306">
+        <v>-1.547046993518382</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307">
+        <v>-0.01415420781782116</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308">
+        <v>-0.2995020964795121</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309">
+        <v>-0.7478299825729925</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310">
+        <v>-1.520092873583186</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311">
+        <v>1.025232895462526</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312">
+        <v>-0.4819123239979995</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313">
+        <v>-1.092979352705163</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314">
+        <v>-0.3642233750885963</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315">
+        <v>1.080240243384624</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316">
+        <v>0.2875151002480106</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317">
+        <v>0.7418927646566311</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318">
+        <v>1.340987995568485</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319">
+        <v>0.455898265830299</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320">
+        <v>-1.669374281059799</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321">
+        <v>-0.4944681400145563</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322">
+        <v>-0.7867914747464063</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323">
+        <v>2.898181096877875</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324">
+        <v>1.44675407146448</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325">
+        <v>-1.815541993173523</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326">
+        <v>-1.052398633230324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327">
+        <v>-0.8587322717706225</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328">
+        <v>-0.6256721945949871</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329">
+        <v>1.120827720273643</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330">
+        <v>-0.6324056091326041</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331">
+        <v>0.03917702038151213</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332">
+        <v>-1.020594343227516</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333">
+        <v>-0.1929736541085405</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334">
+        <v>1.011925999359611</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>-0.1707156815464198</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336">
+        <v>4.395283431479446</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337">
+        <v>-0.6754912589506699</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338">
+        <v>0.1847559674959584</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339">
+        <v>0.9844555665835357</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340">
+        <v>-1.398978122450906</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341">
+        <v>1.916753758181346</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342">
+        <v>-0.8800013199753136</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343">
+        <v>-0.7969738027479111</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344">
+        <v>0.1863149286590727</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345">
+        <v>1.445992905891541</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346">
+        <v>-0.4142985738004453</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347">
+        <v>-0.8154209266846129</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348">
+        <v>0.1348282004569408</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349">
+        <v>0.8521266498571251</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350">
+        <v>-0.5381632374348176</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351">
+        <v>0.2408338672415742</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352">
+        <v>-0.5438283822093302</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353">
+        <v>-0.8921890297363909</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354">
+        <v>0.1468823301556048</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355">
+        <v>2.183800931011178</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356">
+        <v>-1.631704638696555</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357">
+        <v>-0.5766688427788582</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358">
+        <v>-0.6087976066110514</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359">
+        <v>0.7940360629337269</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360">
+        <v>0.1945093023116546</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361">
+        <v>1.318734087045038</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362">
+        <v>0.5999148401647949</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363">
+        <v>0.7169967855651683</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364">
+        <v>-1.150239024832428</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365">
+        <v>-0.06206746793216149</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366">
+        <v>-0.005829190542090752</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367">
+        <v>-1.146078078121958</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368">
+        <v>1.511795897603035</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369">
+        <v>1.159200477635007</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370">
+        <v>0.4486128100657193</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371">
+        <v>-0.002823491726508051</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372">
+        <v>-0.2300954467170284</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373">
+        <v>-0.3063110199483188</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374">
+        <v>-0.4137372702342794</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375">
+        <v>0.9880203135891128</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376">
+        <v>0.6967737714989566</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377">
+        <v>0.6355915735312323</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378">
+        <v>-0.3840045365512903</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379">
+        <v>0.2693761333718089</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380">
+        <v>0.9120934756295386</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381">
+        <v>1.0305727619691</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382">
+        <v>1.504630585908186</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383">
+        <v>1.598237516216589</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384">
+        <v>0.982170420341102</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385">
+        <v>-0.2690653846752948</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386">
+        <v>0.3192940583697195</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387">
+        <v>-0.1897178817901173</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388">
+        <v>0.6563194036274479</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389">
+        <v>-1.147390762011585</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390">
+        <v>-1.570328783052257</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391">
+        <v>-0.739036553961969</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392">
+        <v>0.4721412474714861</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393">
+        <v>0.7381158422638859</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394">
+        <v>-0.7588125324811256</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395">
+        <v>-0.8955557964690747</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396">
+        <v>0.7824079494631823</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397">
+        <v>-0.3106436132927026</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398">
+        <v>1.460495427967069</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399">
+        <v>-0.5147306582502607</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400">
+        <v>0.7236360352450028</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401">
+        <v>-0.402858570785409</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402">
+        <v>-0.03711101384306514</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403">
+        <v>0.5296615038838043</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404">
+        <v>0.68860475982582</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405">
+        <v>-0.9075118183127052</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406">
+        <v>-0.7911331978757239</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407">
+        <v>0.8001008941770658</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408">
+        <v>-1.131674231274292</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409">
+        <v>-0.3048895547393712</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410">
+        <v>-0.4144779027543071</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411">
+        <v>-0.708364544490622</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412">
+        <v>0.30200595386053</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413">
+        <v>-0.3968519284186667</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414">
+        <v>-0.4208814132040823</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415">
+        <v>-1.265374333035826</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416">
+        <v>-1.188631163729541</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417">
+        <v>0.2669476710011351</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418">
+        <v>-0.7372903678664993</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419">
+        <v>-0.05980750559676529</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420">
+        <v>-1.262871424975575</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421">
+        <v>0.2585702727322755</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422">
+        <v>-0.9925735876130023</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423">
+        <v>-0.3252711330421976</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424">
+        <v>0.3002691294991588</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425">
+        <v>-0.5883245609836856</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426">
+        <v>0.7065444724342154</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427">
+        <v>-0.6595091134207223</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428">
+        <v>1.217062338207873</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429">
+        <v>0.4595449728404637</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430">
+        <v>0.4556074666280605</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431">
+        <v>0.6317982043084616</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432">
+        <v>1.357768795701111</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433">
+        <v>-0.7718403419186755</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434">
+        <v>-1.036786927680927</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435">
+        <v>-1.191943588503855</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436">
+        <v>2.335817879260103</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437">
+        <v>-0.8681210013746459</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438">
+        <v>2.302611580466729</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439">
+        <v>-0.5031979550635832</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440">
+        <v>0.2511812089973581</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441">
+        <v>-0.9721496789471178</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442">
+        <v>-0.6846560614713945</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443">
+        <v>-0.00614345794769763</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444">
+        <v>0.1049217507734093</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445">
+        <v>-1.660775059010364</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446">
+        <v>-0.2422933601314111</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447">
+        <v>1.293780760285235</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448">
+        <v>-0.9591590302197169</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449">
+        <v>0.4262949881800494</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450">
+        <v>1.46962599803045</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451">
+        <v>-1.823059156978354</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452">
+        <v>1.022851615294839</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453">
+        <v>-0.1423471063909674</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454">
+        <v>-0.06612540138332684</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455">
+        <v>-0.8950935004812797</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456">
+        <v>1.080764899587453</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457">
+        <v>1.534765652301824</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458">
+        <v>-0.3347175856246246</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459">
+        <v>-1.472555022924587</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460">
+        <v>-0.1530850459771188</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461">
+        <v>0.8558797194135785</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462">
+        <v>0.8282740410408813</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463">
+        <v>1.4311574822974</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464">
+        <v>1.881053592350204</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465">
+        <v>-0.7798159629323557</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466">
+        <v>-0.5434122142196526</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467">
+        <v>-0.8920460415109243</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468">
+        <v>0.9234825473575231</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469">
+        <v>-1.092611114078572</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470">
+        <v>-1.162504244080728</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471">
+        <v>-0.491923535851379</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472">
+        <v>-0.1946874838655604</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473">
+        <v>0.1003895690599352</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474">
+        <v>-0.5941995597795503</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475">
+        <v>-0.1929770162315993</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476">
+        <v>-0.9751592777152783</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477">
+        <v>-0.788634532796034</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478">
+        <v>-0.9549567919522366</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479">
+        <v>0.1495664816444328</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480">
+        <v>0.5092388465788885</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481">
+        <v>-0.7592061819940432</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482">
+        <v>-1.076187493316525</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483">
+        <v>0.122210041168366</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484">
+        <v>-0.7546250018256385</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485">
+        <v>1.063366152618467</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486">
+        <v>0.3713933276689344</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487">
+        <v>-1.054138905595105</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488">
+        <v>-0.5470509491238108</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489">
+        <v>1.117250630999498</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490">
+        <v>1.202064397591406</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491">
+        <v>1.559816444317643</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492">
+        <v>-0.5063895616711167</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493">
+        <v>0.9906965118791354</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494">
+        <v>-0.6340768614451227</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495">
+        <v>-0.00629970010466111</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496">
+        <v>0.3098204877011561</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497">
+        <v>1.040067770252376</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498">
+        <v>-1.168929428511812</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499">
+        <v>-0.03345487137374792</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500">
+        <v>0.07140313207417213</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501">
+        <v>-0.8839357154411513</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502">
+        <v>-1.793811112446501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503">
+        <v>-0.05448086587578283</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504">
+        <v>-0.1421382745685167</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505">
+        <v>-0.9476352904047854</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506">
+        <v>-0.4811463574843435</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507">
+        <v>0.4264221152641749</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508">
+        <v>-0.7819169419868059</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509">
+        <v>0.009317506548691514</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510">
+        <v>-0.8915344687397901</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511">
+        <v>-2.601091523761059</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512">
+        <v>2.291090014820673</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513">
+        <v>0.4074333411499411</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514">
+        <v>0.6559595993370486</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515">
+        <v>0.6391807774982666</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516">
+        <v>0.3171015236058489</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517">
+        <v>1.465793971560306</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518">
+        <v>-0.6586400240539533</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519">
+        <v>-3.423315607539931</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520">
+        <v>-1.551010840280341</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521">
+        <v>-0.7841224424777445</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522">
+        <v>-0.00254474075822714</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523">
+        <v>0.2956025600670906</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524">
+        <v>-0.2908620932988907</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525">
+        <v>-0.949363831228243</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526">
+        <v>-0.03280940043651165</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527">
+        <v>0.3926225933326812</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528">
+        <v>0.4839973159346744</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529">
+        <v>0.630507283341174</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530">
+        <v>-1.118245429585993</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531">
+        <v>-1.738755154717362</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532">
+        <v>-0.1937097494616922</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533">
+        <v>-0.1806293036232589</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534">
+        <v>-0.2594382291185394</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535">
+        <v>-0.04597316477109473</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536">
+        <v>0.5929873800731728</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537">
+        <v>-1.336336442719071</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538">
+        <v>0.2038594899702926</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539">
+        <v>0.4957878787241264</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540">
+        <v>0.5171493596816662</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541">
+        <v>0.5823206442762195</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542">
+        <v>-0.5800098628348707</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543">
+        <v>-0.8218017887710867</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544">
+        <v>0.7212310406315723</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545">
+        <v>-0.467777616575992</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546">
+        <v>-1.287809263430132</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547">
+        <v>-0.6020735983377576</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548">
+        <v>-0.8676316679618036</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549">
+        <v>-1.14812872163824</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550">
+        <v>-0.6495428232944476</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551">
+        <v>0.9952709912182789</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552">
+        <v>-0.3054004619558843</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553">
+        <v>0.9214678098710654</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554">
+        <v>0.8222354944103041</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555">
+        <v>-0.01589716490148417</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556">
+        <v>-0.1122541763910525</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557">
+        <v>0.9233975879267353</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558">
+        <v>1.291863377350557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559">
+        <v>1.168695681437399</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560">
+        <v>-1.914818198729243</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561">
+        <v>-0.9333048269322324</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562">
+        <v>-0.3031877800329447</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563">
+        <v>1.111732298858052</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564">
+        <v>-0.1513923492373387</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565">
+        <v>0.562842617888378</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566">
+        <v>0.9510956685661544</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567">
+        <v>-1.321907635181705</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568">
+        <v>0.9370473562645981</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569">
+        <v>-1.744250314041691</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570">
+        <v>0.9052155046368446</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571">
+        <v>0.9576429706513374</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572">
+        <v>-1.063088113052925</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573">
+        <v>-0.798586056855381</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574">
+        <v>0.3444663661496982</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575">
+        <v>-0.4363246018695288</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576">
+        <v>-0.7868461072316464</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577">
+        <v>0.9763606704915508</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578">
+        <v>-0.4763924121081297</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579">
+        <v>-0.06716730095845727</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580">
+        <v>-0.05622677009192945</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581">
+        <v>1.462217083458056</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582">
+        <v>-1.448198280960192</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583">
+        <v>-0.1038157714658124</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584">
+        <v>-0.4096187111618402</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585">
+        <v>0.9467328590851809</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586">
+        <v>-0.3827434386809191</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587">
+        <v>0.5417196505573996</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588">
+        <v>1.016839462322859</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589">
+        <v>-0.3126192949017154</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590">
+        <v>-0.6912666253754806</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591">
+        <v>-1.150568212117485</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592">
+        <v>-0.5055410496371812</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593">
+        <v>0.7441787183437107</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594">
+        <v>0.6798179494757217</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595">
+        <v>0.4656195415243854</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596">
+        <v>0.8971907233201091</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597">
+        <v>0.5818105838703462</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598">
+        <v>1.287822848141913</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599">
+        <v>-0.1529189094696584</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600">
+        <v>-0.3881607813020636</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601">
+        <v>-0.2880824127388857</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602">
+        <v>-1.362728843316966</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603">
+        <v>-0.8361799566555601</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604">
+        <v>-0.4969303336927658</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605">
+        <v>1.578083693430509</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606">
+        <v>1.535165384030914</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607">
+        <v>0.1994750510100491</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608">
+        <v>1.782874668476924</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609">
+        <v>-1.65256534592269</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610">
+        <v>1.080157359593159</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611">
+        <v>-1.900438577187551</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612">
+        <v>1.481689346600078</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613">
+        <v>-0.6842795770833721</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614">
+        <v>-0.8701692711436821</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615">
+        <v>-1.456080876645501</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616">
+        <v>0.4784585296455543</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617">
+        <v>0.7497508632713845</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618">
+        <v>-1.005335993859697</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619">
+        <v>0.8002920644481899</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620">
+        <v>-0.08433956056468997</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621">
+        <v>0.007027473654898781</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622">
+        <v>0.002027277189018079</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623">
+        <v>-1.066791299827131</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624">
+        <v>0.2626245998618213</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625">
+        <v>-0.9933047824893738</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626">
+        <v>0.1398627519808826</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627">
+        <v>0.6603992522871622</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628">
+        <v>0.2820699517140615</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629">
+        <v>1.414075127610751</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630">
+        <v>0.7081276600834444</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631">
+        <v>-0.7577768696558569</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632">
+        <v>1.596305820342756</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633">
+        <v>0.2921186270523656</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634">
+        <v>0.8831104648328345</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635">
+        <v>0.190106638195412</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636">
+        <v>-0.5350735340960504</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637">
+        <v>2.41906618309</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638">
+        <v>-1.87785144351627</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639">
+        <v>2.695394354383833</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640">
+        <v>0.1093356377050395</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641">
+        <v>0.5050561989744509</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642">
+        <v>1.157337149564971</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643">
+        <v>1.327146010840623</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644">
+        <v>0.2719980681287682</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645">
+        <v>-0.5724698378282832</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646">
+        <v>-1.604702437358491</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647">
+        <v>-0.3274499160106569</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648">
+        <v>-0.6140924470458168</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649">
+        <v>-0.7578603954447375</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650">
+        <v>0.2427221034863782</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651">
+        <v>-1.882080441112908</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1">
+      <c r="A652">
+        <v>-0.491769068921337</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653">
+        <v>-0.3694125221821142</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654">
+        <v>0.3707505741511734</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655">
+        <v>1.336690831294173</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656">
+        <v>0.7338811405242034</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657">
+        <v>1.170429523845511</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658">
+        <v>1.491850255690841</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659">
+        <v>-0.2528835881140472</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660">
+        <v>1.339878804617241</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661">
+        <v>0.7984034176045707</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662">
+        <v>0.03778533409007425</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663">
+        <v>0.7082586456511453</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1">
+      <c r="A664">
+        <v>1.292419614356069</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665">
+        <v>-0.524594284721595</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666">
+        <v>-1.410085378932671</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667">
+        <v>1.739333274853447</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668">
+        <v>-0.03155971026969929</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669">
+        <v>-0.2737471123710755</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670">
+        <v>1.424519718412376</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671">
+        <v>0.1827062018054908</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672">
+        <v>0.7096607013629069</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673">
+        <v>-0.7732027706266633</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674">
+        <v>-0.2434827724979749</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675">
+        <v>0.159943940307116</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1">
+      <c r="A676">
+        <v>-0.1782311903255336</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1">
+      <c r="A677">
+        <v>0.4787591650372445</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678">
+        <v>-0.02142201197905081</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679">
+        <v>0.4130654354926918</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680">
+        <v>1.286916933832692</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681">
+        <v>-0.2063654137450548</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682">
+        <v>0.8282908660976509</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683">
+        <v>0.8119028976782943</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684">
+        <v>0.4906982210541103</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685">
+        <v>-0.2657125445006843</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686">
+        <v>-0.3997987823564553</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687">
+        <v>-0.2292472280896192</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688">
+        <v>0.02963444450863999</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689">
+        <v>0.469195236630077</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690">
+        <v>1.122191655388818</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691">
+        <v>0.1701603629646886</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692">
+        <v>0.4872322869107788</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693">
+        <v>0.4643221593435842</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694">
+        <v>-0.5751168003965084</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695">
+        <v>1.789862366413064</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696">
+        <v>-1.52574744833885</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697">
+        <v>-0.1457938101181191</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698">
+        <v>-0.6099954110635202</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699">
+        <v>-1.338513577297311</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700">
+        <v>0.3323778210507652</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1">
+      <c r="A701">
+        <v>1.153937604467334</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702">
+        <v>-0.5183582993001051</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703">
+        <v>1.157693976619281</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704">
+        <v>-0.1823340660940122</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705">
+        <v>2.312075286393827</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706">
+        <v>0.3404349490527778</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707">
+        <v>-0.9773425347049096</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708">
+        <v>0.6634769196940735</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709">
+        <v>-1.093542406853804</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710">
+        <v>2.648944467151319</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711">
+        <v>0.7067033070940412</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712">
+        <v>1.991460117059828</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713">
+        <v>0.2790519905595438</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1">
+      <c r="A714">
+        <v>0.4604001626600516</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715">
+        <v>-0.9064633502365984</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716">
+        <v>1.204327094780643</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717">
+        <v>1.409380214178234</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718">
+        <v>0.5080897997578103</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719">
+        <v>-1.208125659563358</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720">
+        <v>0.7160368075148538</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721">
+        <v>1.775963242577867</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722">
+        <v>-0.5404196699541409</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723">
+        <v>-0.8248490223555562</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724">
+        <v>1.485221869180464</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725">
+        <v>-1.250207807231648</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726">
+        <v>-2.762055285855787</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727">
+        <v>0.1524569175452163</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728">
+        <v>-0.04850885101325574</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729">
+        <v>1.145827259075691</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730">
+        <v>1.248703457546146</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731">
+        <v>-0.7655487990364386</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732">
+        <v>-0.7629358922554178</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733">
+        <v>-0.6135068165601005</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734">
+        <v>1.301199380896912</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735">
+        <v>-1.043880579046186</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736">
+        <v>1.079978690303269</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737">
+        <v>-0.169000586300955</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738">
+        <v>-2.09198998958963</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739">
+        <v>1.307127526674925</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740">
+        <v>-1.308640478009645</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741">
+        <v>1.282390232501786</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742">
+        <v>0.3406773970514222</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743">
+        <v>0.2276882640587407</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744">
+        <v>-0.5741236546513433</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745">
+        <v>-0.8621205173523673</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746">
+        <v>-0.4013202277023168</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747">
+        <v>-0.419649644722435</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748">
+        <v>-0.788773823291371</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749">
+        <v>-0.6201164841226813</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750">
+        <v>0.6689441651681989</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751">
+        <v>0.9440203063993754</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1">
+      <c r="A752">
+        <v>-0.8605010702146021</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753">
+        <v>-1.399782678867638</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754">
+        <v>-1.423028364772909</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755">
+        <v>-0.7374454755840315</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756">
+        <v>0.1087123738255157</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757">
+        <v>-1.864165722531289</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1">
+      <c r="A758">
+        <v>-1.354131357996118</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759">
+        <v>1.099006672181923</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760">
+        <v>0.5126174813364741</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1">
+      <c r="A761">
+        <v>0.5776608412632972</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762">
+        <v>1.11320083799027</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1">
+      <c r="A763">
+        <v>-1.835474280251045</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1">
+      <c r="A764">
+        <v>0.8711433495163092</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1">
+      <c r="A765">
+        <v>-0.3706136145962172</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766">
+        <v>-0.6108832126827709</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1">
+      <c r="A767">
+        <v>-0.7674620948820584</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1">
+      <c r="A768">
+        <v>0.5127654311599156</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1">
+      <c r="A769">
+        <v>-0.1532756069398448</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770">
+        <v>-0.8815961676049558</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1">
+      <c r="A771">
+        <v>2.111630968708873</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772">
+        <v>1.389603191060828</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1">
+      <c r="A773">
+        <v>-0.6939568522997439</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774">
+        <v>0.7623982523545824</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775">
+        <v>0.1001956646131241</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776">
+        <v>-2.038771719537816</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1">
+      <c r="A777">
+        <v>-0.6041222922264462</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778">
+        <v>0.6644085338801221</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779">
+        <v>-0.07509225462931268</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780">
+        <v>-0.3074423118606907</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781">
+        <v>-0.4009298816228651</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782">
+        <v>0.3606194324374697</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783">
+        <v>-0.1732487818926564</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1">
+      <c r="A784">
+        <v>-0.7732309397860826</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785">
+        <v>-0.03932590582908702</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786">
+        <v>-0.7407286461945053</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1">
+      <c r="A787">
+        <v>0.2861249008102733</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788">
+        <v>0.05768514251101036</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1">
+      <c r="A789">
+        <v>-0.26483449083924</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1">
+      <c r="A790">
+        <v>1.131491045701554</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791">
+        <v>-0.6662270322682394</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1">
+      <c r="A792">
+        <v>-0.8862841940655631</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793">
+        <v>-0.7408958250830775</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1">
+      <c r="A794">
+        <v>-0.6744091722633512</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795">
+        <v>1.959599070596484</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796">
+        <v>0.4821803884471375</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797">
+        <v>1.013121991609935</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798">
+        <v>1.705870846810804</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1">
+      <c r="A799">
+        <v>0.3465077360319272</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800">
+        <v>1.246538742457499</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801">
+        <v>-2.018928083322128</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802">
+        <v>1.170939081780078</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803">
+        <v>0.6385811731462323</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804">
+        <v>-0.534083948025198</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805">
+        <v>-2.868793274567356</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806">
+        <v>-0.1576980722426408</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1">
+      <c r="A807">
+        <v>0.3098133575341523</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808">
+        <v>0.8068291823733342</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809">
+        <v>1.234412287239791</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1">
+      <c r="A810">
+        <v>-0.9361259383455921</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811">
+        <v>-1.564807298644479</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1">
+      <c r="A812">
+        <v>-1.362289755336459</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1">
+      <c r="A813">
+        <v>1.083567521706997</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1">
+      <c r="A814">
+        <v>0.5038774546775681</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1">
+      <c r="A815">
+        <v>-0.7453406193116072</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1">
+      <c r="A816">
+        <v>1.029139200101752</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1">
+      <c r="A817">
+        <v>0.7010428860024234</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818">
+        <v>0.8885744020018898</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1">
+      <c r="A819">
+        <v>-0.3886421277645708</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820">
+        <v>-0.1417165562798011</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821">
+        <v>0.4951852084968139</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1">
+      <c r="A822">
+        <v>-0.6556862438558222</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823">
+        <v>-0.2860154090991584</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1">
+      <c r="A824">
+        <v>0.2751630122032678</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825">
+        <v>-1.013347942831799</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1">
+      <c r="A826">
+        <v>0.6139926325057001</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827">
+        <v>-0.5128721705630347</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828">
+        <v>1.470498138881936</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1">
+      <c r="A829">
+        <v>0.5705000997392606</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830">
+        <v>1.27391501687918</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831">
+        <v>0.2539196388699589</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1">
+      <c r="A832">
+        <v>-0.1432019630715941</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833">
+        <v>-1.084810487843268</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834">
+        <v>1.176623634714371</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1">
+      <c r="A835">
+        <v>-0.8587611874798612</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836">
+        <v>-1.43131396031245</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837">
+        <v>0.03641484477277931</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838">
+        <v>1.700108014060626</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839">
+        <v>2.061495230339296</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1">
+      <c r="A840">
+        <v>-0.6068469862883543</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1">
+      <c r="A841">
+        <v>-1.321559424718763</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1">
+      <c r="A842">
+        <v>-0.2617820732884159</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1">
+      <c r="A843">
+        <v>0.632677548482619</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1">
+      <c r="A844">
+        <v>0.4260764651262723</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1">
+      <c r="A845">
+        <v>1.645870209665571</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1">
+      <c r="A846">
+        <v>-0.4049885609776614</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1">
+      <c r="A847">
+        <v>-0.1972929194656881</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848">
+        <v>-0.1936973095311858</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849">
+        <v>0.5084889056850179</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850">
+        <v>-0.2917031828706493</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851">
+        <v>0.06181817958551899</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852">
+        <v>-0.7776022867035102</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853">
+        <v>-1.337011568404946</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1">
+      <c r="A854">
+        <v>-0.04666849373541097</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1">
+      <c r="A855">
+        <v>-0.253799906890558</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1">
+      <c r="A856">
+        <v>1.446659089301517</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1">
+      <c r="A857">
+        <v>-0.7951417871991945</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1">
+      <c r="A858">
+        <v>0.441611943680195</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859">
+        <v>0.9422478690369676</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860">
+        <v>-0.712571908948438</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1">
+      <c r="A861">
+        <v>0.813670551204336</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1">
+      <c r="A862">
+        <v>-0.1257970798966603</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863">
+        <v>-1.797346109539807</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1">
+      <c r="A864">
+        <v>1.820354181899984</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865">
+        <v>1.314530493666252</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866">
+        <v>0.1303892506297889</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867">
+        <v>0.490065841586448</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868">
+        <v>0.8017765248887982</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869">
+        <v>0.8882787599076356</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870">
+        <v>-1.142018499843332</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871">
+        <v>-1.056307754318908</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872">
+        <v>-1.165640657759022</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873">
+        <v>-1.199960947377537</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874">
+        <v>0.2420779139719589</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875">
+        <v>-1.898587258246912</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876">
+        <v>-0.5453336900568218</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877">
+        <v>0.282829050385114</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878">
+        <v>-0.9554362863957017</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879">
+        <v>-0.3755790676032398</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880">
+        <v>0.8934199905473957</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881">
+        <v>0.5721816394635677</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882">
+        <v>-0.1880024821166609</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883">
+        <v>1.550920351180863</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884">
+        <v>-2.435756813775549</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885">
+        <v>-0.9253932703909221</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886">
+        <v>-0.1379090861831745</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887">
+        <v>-1.554242255653763</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888">
+        <v>2.103532419606472</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889">
+        <v>0.7902727401489128</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890">
+        <v>-1.047790885510058</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891">
+        <v>0.2525369923069001</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892">
+        <v>0.3429166675599026</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893">
+        <v>0.376605735617605</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894">
+        <v>0.3325732416515308</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895">
+        <v>-1.041703517614696</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896">
+        <v>-0.4553749014202815</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897">
+        <v>-0.4008909349751987</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898">
+        <v>-0.361205554974827</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899">
+        <v>0.9103771485512447</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900">
+        <v>1.316660002626818</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901">
+        <v>-0.5980449951801424</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902">
+        <v>-0.09911878350384652</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903">
+        <v>-0.5868316339641003</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904">
+        <v>-0.8642079690054756</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905">
+        <v>-1.376270656440325</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906">
+        <v>-0.199251416634942</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907">
+        <v>0.5512664487354255</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908">
+        <v>-1.497323362191153</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909">
+        <v>0.214213407536478</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910">
+        <v>1.195705774529376</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911">
+        <v>-0.1002155634694341</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912">
+        <v>1.930102202085258</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1">
+      <c r="A913">
+        <v>0.3824929859293945</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1">
+      <c r="A914">
+        <v>0.9770709916650444</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1">
+      <c r="A915">
+        <v>0.930129459769103</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1">
+      <c r="A916">
+        <v>1.457959287704468</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1">
+      <c r="A917">
+        <v>1.509733579090515</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1">
+      <c r="A918">
+        <v>2.44655356689295</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1">
+      <c r="A919">
+        <v>1.178603577729908</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1">
+      <c r="A920">
+        <v>0.2712100874742571</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1">
+      <c r="A921">
+        <v>0.9861595807913832</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1">
+      <c r="A922">
+        <v>0.9541514814736322</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1">
+      <c r="A923">
+        <v>-2.815966611825161</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1">
+      <c r="A924">
+        <v>0.04226267222899843</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1">
+      <c r="A925">
+        <v>0.3808567396198295</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1">
+      <c r="A926">
+        <v>-0.2048615882744291</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1">
+      <c r="A927">
+        <v>-1.484777278506914</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1">
+      <c r="A928">
+        <v>0.7076249911359969</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1">
+      <c r="A929">
+        <v>-1.343657590166377</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1">
+      <c r="A930">
+        <v>-0.7825838264254344</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1">
+      <c r="A931">
+        <v>0.1238131232850162</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1">
+      <c r="A932">
+        <v>-0.6149592908771059</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1">
+      <c r="A933">
+        <v>0.7070608656435696</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1">
+      <c r="A934">
+        <v>-0.3616066078942408</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1">
+      <c r="A935">
+        <v>-1.807426397470489</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1">
+      <c r="A936">
+        <v>-0.2422165629034282</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1">
+      <c r="A937">
+        <v>-1.561297464506842</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1">
+      <c r="A938">
+        <v>-0.3863040065781307</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1">
+      <c r="A939">
+        <v>1.448631134058313</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1">
+      <c r="A940">
+        <v>0.5854675183119928</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1">
+      <c r="A941">
+        <v>1.21555996263397</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1">
+      <c r="A942">
+        <v>0.3526417428215778</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1">
+      <c r="A943">
+        <v>-0.08417448500609703</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1">
+      <c r="A944">
+        <v>0.1435135595599142</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1">
+      <c r="A945">
+        <v>-0.8477601535759023</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1">
+      <c r="A946">
+        <v>-0.8858421024138061</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1">
+      <c r="A947">
+        <v>-0.9863802237308992</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1">
+      <c r="A948">
+        <v>-1.636214575393217</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1">
+      <c r="A949">
+        <v>0.5816521396560441</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1">
+      <c r="A950">
+        <v>0.1719605660956082</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1">
+      <c r="A951">
+        <v>0.5646879620252867</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1">
+      <c r="A952">
+        <v>0.954707478912353</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1">
+      <c r="A953">
+        <v>0.3109817829228512</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1">
+      <c r="A954">
+        <v>0.589429090852076</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1">
+      <c r="A955">
+        <v>-1.105379587865735</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1">
+      <c r="A956">
+        <v>-0.7212481827462026</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1">
+      <c r="A957">
+        <v>-1.713430475923777</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1">
+      <c r="A958">
+        <v>-0.2427089428358266</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1">
+      <c r="A959">
+        <v>0.2828303874613983</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1">
+      <c r="A960">
+        <v>-0.3382992287030092</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1">
+      <c r="A961">
+        <v>-0.07137041057865705</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1">
+      <c r="A962">
+        <v>1.183143287472959</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1">
+      <c r="A963">
+        <v>1.031536049212173</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1">
+      <c r="A964">
+        <v>0.3158772329370092</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1">
+      <c r="A965">
+        <v>0.2394122071247448</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1">
+      <c r="A966">
+        <v>0.5467113191363313</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1">
+      <c r="A967">
+        <v>0.256821841128525</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1">
+      <c r="A968">
+        <v>1.707885711264621</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1">
+      <c r="A969">
+        <v>-0.8198890730192663</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1">
+      <c r="A970">
+        <v>-0.5367095971735544</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1">
+      <c r="A971">
+        <v>0.642496552110679</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1">
+      <c r="A972">
+        <v>-0.3231092592825445</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1">
+      <c r="A973">
+        <v>-1.33654773233036</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1">
+      <c r="A974">
+        <v>0.6031002661321399</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1">
+      <c r="A975">
+        <v>-0.4222376702744809</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1">
+      <c r="A976">
+        <v>0.2448051554281289</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1">
+      <c r="A977">
+        <v>1.039505708116509</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1">
+      <c r="A978">
+        <v>0.9396862436097537</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1">
+      <c r="A979">
+        <v>-0.5859955530795646</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1">
+      <c r="A980">
+        <v>0.7843169210693672</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1">
+      <c r="A981">
+        <v>-0.6710933560599573</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1">
+      <c r="A982">
+        <v>0.4901360584476799</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1">
+      <c r="A983">
+        <v>-0.5564330698700506</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1">
+      <c r="A984">
+        <v>-0.1234030694314502</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1">
+      <c r="A985">
+        <v>-1.042650976620775</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1">
+      <c r="A986">
+        <v>0.1845828492162215</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1">
+      <c r="A987">
+        <v>-0.4604242249430687</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1">
+      <c r="A988">
+        <v>0.7635729252586324</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989">
+        <v>0.04489434533077875</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1">
+      <c r="A990">
+        <v>0.103919294991905</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1">
+      <c r="A991">
+        <v>0.7407570957152231</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1">
+      <c r="A992">
+        <v>-0.4040627596107466</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1">
+      <c r="A993">
+        <v>-0.9176364091534772</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1">
+      <c r="A994">
+        <v>-1.613600383634946</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1">
+      <c r="A995">
+        <v>-0.3264687948646787</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1">
+      <c r="A996">
+        <v>2.398517615951234</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1">
+      <c r="A997">
+        <v>0.08388032169665645</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1">
+      <c r="A998">
+        <v>-2.251356270977742</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1">
+      <c r="A999">
+        <v>-0.5390242110620754</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1">
+      <c r="A1000">
+        <v>1.054727652105088</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1">
+      <c r="A1001">
+        <v>-0.6015431551309995</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1">
+      <c r="A1002">
+        <v>1.863494945948112</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1">
+      <c r="A1003">
+        <v>-0.7103203653622991</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1">
+      <c r="A1004">
+        <v>-0.1702622419626522</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1">
+      <c r="A1005">
+        <v>0.09534297579629639</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1">
+      <c r="A1006">
+        <v>2.420039910542239</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1">
+      <c r="A1007">
+        <v>0.4588479925726952</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1">
+      <c r="A1008">
+        <v>-0.6537191354942168</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1">
+      <c r="A1009">
+        <v>0.5489722407542363</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1">
+      <c r="A1010">
+        <v>-0.7534337339232348</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1">
+      <c r="A1011">
+        <v>0.3011476507203552</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1">
+      <c r="A1012">
+        <v>-1.971691072373052</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1">
+      <c r="A1013">
+        <v>-0.1779557226782399</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1">
+      <c r="A1014">
+        <v>-1.390361210258346</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1">
+      <c r="A1015">
+        <v>-2.665759641996723</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1">
+      <c r="A1016">
+        <v>0.88806418892676</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1">
+      <c r="A1017">
+        <v>1.78697044916008</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1">
+      <c r="A1018">
+        <v>-1.389553114075439</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1">
+      <c r="A1019">
+        <v>-0.4453736356890678</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1">
+      <c r="A1020">
+        <v>-0.3321695612951734</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1">
+      <c r="A1021">
+        <v>0.07094933931643066</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1">
+      <c r="A1022">
+        <v>-0.7838805697348341</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1">
+      <c r="A1023">
+        <v>-1.484242905844318</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1">
+      <c r="A1024">
+        <v>0.7580632418408323</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1">
+      <c r="A1025">
+        <v>-0.04742167314576663</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1">
+      <c r="A1026">
+        <v>-0.4327803921451077</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1">
+      <c r="A1027">
+        <v>-1.402088706846928</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1">
+      <c r="A1028">
+        <v>1.013801942932391</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1">
+      <c r="A1029">
+        <v>-0.08562462005361549</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1">
+      <c r="A1030">
+        <v>-0.4375838274812729</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1">
+      <c r="A1031">
+        <v>0.4928047763206629</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1">
+      <c r="A1032">
+        <v>-0.2318732358916071</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1">
+      <c r="A1033">
+        <v>0.1815799016596943</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1">
+      <c r="A1034">
+        <v>1.474197696001402</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1">
+      <c r="A1035">
+        <v>-1.414114611433698</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1">
+      <c r="A1036">
+        <v>0.07695744953305944</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1">
+      <c r="A1037">
+        <v>-0.2914530128234099</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1">
+      <c r="A1038">
+        <v>-0.2536950466360727</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1">
+      <c r="A1039">
+        <v>-1.785808667257619</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1">
+      <c r="A1040">
+        <v>-1.209262254817393</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1">
+      <c r="A1041">
+        <v>-0.9133951030684024</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1">
+      <c r="A1042">
+        <v>-0.3956663517509138</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1">
+      <c r="A1043">
+        <v>0.2826200597444918</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1">
+      <c r="A1044">
+        <v>1.503896495863152</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1">
+      <c r="A1045">
+        <v>-0.6893855872423679</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1">
+      <c r="A1046">
+        <v>-2.338142558236826</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1">
+      <c r="A1047">
+        <v>-0.4565341973732277</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1">
+      <c r="A1048">
+        <v>1.527194082538846</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1">
+      <c r="A1049">
+        <v>-0.02708489196412347</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1">
+      <c r="A1050">
+        <v>0.6373777626803946</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1">
+      <c r="A1051">
+        <v>-2.315370479290638</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1">
+      <c r="A1052">
+        <v>-0.4233857182446511</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1">
+      <c r="A1053">
+        <v>-1.113505801478356</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1">
+      <c r="A1054">
+        <v>-0.6884747159693025</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1">
+      <c r="A1055">
+        <v>-0.6132175668477972</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1">
+      <c r="A1056">
+        <v>0.6760581926150577</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1">
+      <c r="A1057">
+        <v>-1.319883477371012</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1">
+      <c r="A1058">
+        <v>1.197809673011724</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1">
+      <c r="A1059">
+        <v>0.09620509856053905</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060">
+        <v>0.4622717341103671</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061">
+        <v>-0.44109591017873</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1">
+      <c r="A1062">
+        <v>-1.885603519738249</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1">
+      <c r="A1063">
+        <v>0.527522524659943</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1">
+      <c r="A1064">
+        <v>1.292308007372645</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1">
+      <c r="A1065">
+        <v>-0.3251446689360502</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1">
+      <c r="A1066">
+        <v>-1.314840554118969</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1">
+      <c r="A1067">
+        <v>1.629492146277606</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1">
+      <c r="A1068">
+        <v>-0.8174195214901234</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1">
+      <c r="A1069">
+        <v>0.2074791667027613</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1">
+      <c r="A1070">
+        <v>0.2542363833625649</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071">
+        <v>-2.628285383605824</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1">
+      <c r="A1072">
+        <v>0.4200386699974791</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1">
+      <c r="A1073">
+        <v>-0.01821828086129045</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1">
+      <c r="A1074">
+        <v>-0.1373533234915629</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1">
+      <c r="A1075">
+        <v>-0.3621626759197</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1">
+      <c r="A1076">
+        <v>-0.8547857573145985</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1">
+      <c r="A1077">
+        <v>-0.1558210855397397</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1">
+      <c r="A1078">
+        <v>0.02867961414149503</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1">
+      <c r="A1079">
+        <v>-1.0597799415144</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1">
+      <c r="A1080">
+        <v>0.4869453025588916</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1">
+      <c r="A1081">
+        <v>-2.179254370243767</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1">
+      <c r="A1082">
+        <v>0.3059436677338886</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1">
+      <c r="A1083">
+        <v>0.2892926033475972</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1">
+      <c r="A1084">
+        <v>-0.2075187482650577</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1">
+      <c r="A1085">
+        <v>-0.07433683780958229</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1">
+      <c r="A1086">
+        <v>-0.5873349866798413</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1">
+      <c r="A1087">
+        <v>-2.864624568510524</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1">
+      <c r="A1088">
+        <v>-0.7615625997758455</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1">
+      <c r="A1089">
+        <v>1.623783181181384</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1">
+      <c r="A1090">
+        <v>-1.445187718300394</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1">
+      <c r="A1091">
+        <v>0.9132147167194479</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1">
+      <c r="A1092">
+        <v>-0.03453894494511554</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1">
+      <c r="A1093">
+        <v>0.2778251342405071</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1">
+      <c r="A1094">
+        <v>1.661149605723126</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1">
+      <c r="A1095">
+        <v>-0.3300547426125101</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1">
+      <c r="A1096">
+        <v>0.08067216401375146</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1">
+      <c r="A1097">
+        <v>-1.061952184652566</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1">
+      <c r="A1098">
+        <v>0.8257799938133372</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1">
+      <c r="A1099">
+        <v>-0.1924999653727239</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1">
+      <c r="A1100">
+        <v>-0.4337954361961284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.557721860608734</v>
+      </c>
+      <c r="D2">
+        <v>0.7641301581292282</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>0.9900498337491681</v>
+      </c>
+      <c r="B3">
+        <v>0.09999999999999973</v>
+      </c>
+      <c r="C3">
+        <v>0.2618486068288439</v>
+      </c>
+      <c r="D3">
+        <v>1.157578843433154</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>0.9607894391523232</v>
+      </c>
+      <c r="B4">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.139537815856492</v>
+      </c>
+      <c r="D4">
+        <v>1.403360122366351</v>
+      </c>
+      <c r="E4">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>0.9139311852712282</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5">
+        <v>0.04747995825585339</v>
+      </c>
+      <c r="D5">
+        <v>1.745694013404234</v>
+      </c>
+      <c r="E5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>0.8521437889662113</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>0.00216062331275765</v>
+      </c>
+      <c r="D6">
+        <v>2.477369275702242</v>
+      </c>
+      <c r="E6">
+        <v>0.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>-1.398776959859042</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>-0.2301721117527329</v>
+      </c>
+      <c r="C3">
+        <v>0.1728825664407191</v>
+      </c>
+      <c r="D3">
+        <v>0.9989612343339427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>-1.114113180807836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1.200118907796268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>-1.170882547933363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>0.1907940858667393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1.002694991040891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>-1.055899066622084</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>-0.4998468576444287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1.148863372875086</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>-0.2836728972358081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>-0.6192187550994912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>0.2023180111394932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>-1.046554027431043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>-0.1529592276622007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>0.3602013349407289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2.057837151589624</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>0.33801065334201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>-1.43853595588918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>-1.412634296423925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>0.3536770904999189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>2.913712271044484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>0.5757556779305145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>-0.5876101513756679</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>0.569130039786823</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>-0.4611682997157949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>0.4773656556478487</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>-0.3404485306376797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>-0.2115051158966348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>-0.6507209657835031</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>-0.5439941910235205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>0.1759994726080958</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>0.5898319500008828</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>0.9012460728407162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>0.7190230260110104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>0.9228096578691681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>-0.3779077662846078</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>0.4294073452441252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>-1.121816138117657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>-0.209924398558937</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>-0.9120959090591438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>0.1324646005666777</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>1.964919328544447</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>-0.6691460458765683</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>-0.03658227437805608</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>1.044433054163469</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>-1.147695313551824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>-0.2369940642210728</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>0.6198942097826938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>0.01114094920013477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>1.188147905968518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>0.87653827527303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>-1.04856858716256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>-0.7027548184144883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>1.047032325116173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>-0.7066677641576855</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>-0.4150051605258554</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>1.020393347626906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>-1.238019564001302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>0.04188510175024694</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>0.6470628757042648</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>-0.2838880557766608</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>-0.05739296082576</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>-0.8894645231204306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>0.1018629561648063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>0.4323356783164196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>-0.2155203325965174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>1.938448952296019</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>-1.304401978399112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>-0.04983849225545028</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>-1.422226357286787</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>1.136688934847655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>-0.8598477832771956</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>0.05513392943717342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>1.504063095843714</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>1.581183591469372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>-0.1155269286770454</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>1.735699819512738</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>0.9134901218126052</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>1.890377370980127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>0.1076871502157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>0.988278700382321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>2.547788097840259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>-0.3903622608842333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>0.3918888774607824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>-0.2196954856236648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>0.7233597196845434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>1.261181310216441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>1.208518642511868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>0.8426861882256896</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>1.958647863506614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>-0.8201666513387564</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>-1.602319869940883</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>-0.1976852995917328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>1.586468668801653</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>0.33873767251077</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>1.364325119285025</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>-1.411622589993067</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>1.211012527777493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>-0.3724665741078732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -459,13 +6945,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.3072727398464736</v>
+        <v>0.1659893196869659</v>
       </c>
       <c r="D2">
-        <v>0.8918047119644092</v>
+        <v>10.63194775686806</v>
       </c>
       <c r="E2">
         <v>3.1</v>
@@ -479,13 +6965,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>10.01424128156981</v>
+        <v>10.61704571698773</v>
       </c>
       <c r="D3">
-        <v>11.43395809241658</v>
+        <v>20.70391452927971</v>
       </c>
       <c r="E3">
         <v>3.1</v>
@@ -499,13 +6985,13 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>17.42464099679054</v>
+        <v>18.91589914041777</v>
       </c>
       <c r="D4">
-        <v>18.76053366326358</v>
+        <v>29.94404664058553</v>
       </c>
       <c r="E4">
         <v>3.1</v>
@@ -519,13 +7005,13 @@
         <v>30</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>29.85711683977965</v>
+        <v>28.98232973072535</v>
       </c>
       <c r="D5">
-        <v>30.76514557448283</v>
+        <v>37.92717016084779</v>
       </c>
       <c r="E5">
         <v>3.1</v>
@@ -539,13 +7025,13 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>39.13406193963625</v>
+        <v>40.55403711677141</v>
       </c>
       <c r="D6">
-        <v>40.47099912524688</v>
+        <v>50.83210781956277</v>
       </c>
       <c r="E6">
         <v>3.1</v>
@@ -559,13 +7045,13 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>50.79820419307993</v>
+        <v>49.26055326273993</v>
       </c>
       <c r="D7">
-        <v>50.77355959718236</v>
+        <v>58.35142677567546</v>
       </c>
       <c r="E7">
         <v>3.1</v>
@@ -579,13 +7065,13 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>59.04590083394364</v>
+        <v>59.94285280523078</v>
       </c>
       <c r="D8">
-        <v>60.26993663227358</v>
+        <v>70.6593579270411</v>
       </c>
       <c r="E8">
         <v>3.1</v>
@@ -599,13 +7085,13 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>68.78458602045001</v>
+        <v>70.60675906828119</v>
       </c>
       <c r="D9">
-        <v>68.62002761244918</v>
+        <v>79.13421073285446</v>
       </c>
       <c r="E9">
         <v>3.1</v>
@@ -619,13 +7105,13 @@
         <v>80</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>80.66518578130041</v>
+        <v>77.76506809079144</v>
       </c>
       <c r="D10">
-        <v>83.89917261627613</v>
+        <v>87.96053938212182</v>
       </c>
       <c r="E10">
         <v>3.1</v>
@@ -639,13 +7125,13 @@
         <v>90</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>89.40057002211327</v>
+        <v>90.45963786409362</v>
       </c>
       <c r="D11">
-        <v>90.00112304131922</v>
+        <v>101.681907774239</v>
       </c>
       <c r="E11">
         <v>3.1</v>
@@ -659,13 +7145,13 @@
         <v>100</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C12">
-        <v>100.0546224712344</v>
+        <v>101.5014512157457</v>
       </c>
       <c r="D12">
-        <v>101.9705619890589</v>
+        <v>112.1862204838594</v>
       </c>
       <c r="E12">
         <v>3.1</v>
@@ -679,7 +7165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -689,32 +7175,32 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>9.984092110159903</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.002580697286428</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.8131198792203895</v>
+        <v>9.984092148166159</v>
       </c>
       <c r="C3">
-        <v>1.006280818083036</v>
+        <v>1.002580696763875</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +7208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -732,19 +7218,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -752,19 +7238,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.672502799452056</v>
+        <v>0.6926220832394784</v>
       </c>
       <c r="C2">
-        <v>0.6656649382164381</v>
+        <v>0.7641301581292282</v>
       </c>
       <c r="D2">
-        <v>4.102264165878296</v>
+        <v>9.874860787314894</v>
       </c>
       <c r="E2">
-        <v>1.600000000000003</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.1275052411335529</v>
+        <v>0.9249404837355075</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -772,19 +7258,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.672502799452056</v>
+        <v>0.6926220832394784</v>
       </c>
       <c r="C3">
-        <v>1.14708087736981</v>
+        <v>1.157578843433154</v>
       </c>
       <c r="D3">
-        <v>28.03807067871094</v>
+        <v>9.874860767168061</v>
       </c>
       <c r="E3">
-        <v>-1.44</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3231592942042291</v>
+        <v>0.7282501736079189</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -792,19 +7278,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.672502799452056</v>
+        <v>0.6926220832394784</v>
       </c>
       <c r="C4">
-        <v>1.516572050799055</v>
+        <v>1.403360122366351</v>
       </c>
       <c r="D4">
-        <v>16.05583441257477</v>
+        <v>9.874860745826824</v>
       </c>
       <c r="E4">
-        <v>-1.84</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.5273523068926885</v>
+        <v>0.6428533441583145</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -812,19 +7298,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.672502799452056</v>
+        <v>0.6926220832394784</v>
       </c>
       <c r="C5">
-        <v>1.863142160220842</v>
+        <v>1.745694013404234</v>
       </c>
       <c r="D5">
-        <v>1.534714211677199</v>
+        <v>9.874860773393394</v>
       </c>
       <c r="E5">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6701540047214043</v>
+        <v>0.5525982259966573</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -832,19 +7318,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.672502799452056</v>
+        <v>0.6926220832394784</v>
       </c>
       <c r="C6">
-        <v>2.153024276580285</v>
+        <v>2.477369275702242</v>
       </c>
       <c r="D6">
-        <v>1.534714213478228</v>
+        <v>9.874860786521763</v>
       </c>
       <c r="E6">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6014002257907263</v>
+        <v>0.4250513558213258</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -852,19 +7338,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.147405762250313</v>
+        <v>1.146713610960068</v>
       </c>
       <c r="C7">
-        <v>0.6656649382164381</v>
+        <v>0.7641301581292282</v>
       </c>
       <c r="D7">
-        <v>20.34949946403503</v>
+        <v>9.874860787353953</v>
       </c>
       <c r="E7">
-        <v>1.77635683940025E-15</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.224822425410883</v>
+        <v>0.7051382978489187</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -872,19 +7358,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.147405762250313</v>
+        <v>1.146713610960068</v>
       </c>
       <c r="C8">
-        <v>1.14708087736981</v>
+        <v>1.157578843433154</v>
       </c>
       <c r="D8">
-        <v>3.866713523864746</v>
+        <v>9.874860787338456</v>
       </c>
       <c r="E8">
-        <v>-1.96</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3591889894979692</v>
+        <v>0.5847387644876474</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -892,19 +7378,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.147405762250313</v>
+        <v>1.146713610960068</v>
       </c>
       <c r="C9">
-        <v>1.516572050799055</v>
+        <v>1.403360122366351</v>
       </c>
       <c r="D9">
-        <v>3.852812170982361</v>
+        <v>9.874860787346201</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6272053899244351</v>
+        <v>0.5283804562943125</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -912,19 +7398,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.147405762250313</v>
+        <v>1.146713610960068</v>
       </c>
       <c r="C10">
-        <v>1.863142160220842</v>
+        <v>1.745694013404234</v>
       </c>
       <c r="D10">
-        <v>1.534714213270693</v>
+        <v>9.87486078735386</v>
       </c>
       <c r="E10">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.5644396520919722</v>
+        <v>0.4658434417908237</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -932,19 +7418,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.147405762250313</v>
+        <v>1.146713610960068</v>
       </c>
       <c r="C11">
-        <v>2.153024276580285</v>
+        <v>2.477369275702242</v>
       </c>
       <c r="D11">
-        <v>1.534714213484742</v>
+        <v>9.874860786462236</v>
       </c>
       <c r="E11">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.5148640030261882</v>
+        <v>0.3717931370201307</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -952,19 +7438,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.530822868813252</v>
+        <v>1.495037762278907</v>
       </c>
       <c r="C12">
-        <v>0.6656649382164381</v>
+        <v>0.7641301581292282</v>
       </c>
       <c r="D12">
-        <v>14.21997046470642</v>
+        <v>9.874860787280699</v>
       </c>
       <c r="E12">
-        <v>1.77635683940025E-15</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.4172827557600332</v>
+        <v>0.5964183143050851</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -972,19 +7458,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.530822868813252</v>
+        <v>1.495037762278907</v>
       </c>
       <c r="C13">
-        <v>1.14708087736981</v>
+        <v>1.157578843433154</v>
       </c>
       <c r="D13">
-        <v>-1.370797395706177</v>
+        <v>9.874860787303604</v>
       </c>
       <c r="E13">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5237239250657515</v>
+        <v>0.5079547190957044</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -992,19 +7478,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.530822868813252</v>
+        <v>1.495037762278907</v>
       </c>
       <c r="C14">
-        <v>1.516572050799055</v>
+        <v>1.403360122366351</v>
       </c>
       <c r="D14">
-        <v>1.53471418332237</v>
+        <v>9.874860787319273</v>
       </c>
       <c r="E14">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.557614873775111</v>
+        <v>0.4648806604359441</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1012,19 +7498,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.530822868813252</v>
+        <v>1.495037762278907</v>
       </c>
       <c r="C15">
-        <v>1.863142160220842</v>
+        <v>1.745694013404234</v>
       </c>
       <c r="D15">
-        <v>1.53471420529383</v>
+        <v>9.874860787340126</v>
       </c>
       <c r="E15">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5006747670700379</v>
+        <v>0.4157731080742763</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1032,19 +7518,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.530822868813252</v>
+        <v>1.495037762278907</v>
       </c>
       <c r="C16">
-        <v>2.153024276580285</v>
+        <v>2.477369275702242</v>
       </c>
       <c r="D16">
-        <v>1.534714210578281</v>
+        <v>9.874860767927899</v>
       </c>
       <c r="E16">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.4612766390311975</v>
+        <v>0.3391921465171285</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1052,19 +7538,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.853900784226452</v>
+        <v>1.847584606850489</v>
       </c>
       <c r="C17">
-        <v>0.6656649382164381</v>
+        <v>0.7641301581292282</v>
       </c>
       <c r="D17">
-        <v>12.45269858837128</v>
+        <v>9.874860787326622</v>
       </c>
       <c r="E17">
-        <v>-0.4799999999999986</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.5688375583378026</v>
+        <v>0.5159097543448525</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1072,19 +7558,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.853900784226452</v>
+        <v>1.847584606850489</v>
       </c>
       <c r="C18">
-        <v>1.14708087736981</v>
+        <v>1.157578843433154</v>
       </c>
       <c r="D18">
-        <v>1.534714177714766</v>
+        <v>9.874860787273583</v>
       </c>
       <c r="E18">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.5662389436017568</v>
+        <v>0.4483646713883334</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1092,19 +7578,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.853900784226452</v>
+        <v>1.847584606850489</v>
       </c>
       <c r="C19">
-        <v>1.516572050799055</v>
+        <v>1.403360122366351</v>
       </c>
       <c r="D19">
-        <v>1.534714210794619</v>
+        <v>9.874860787297285</v>
       </c>
       <c r="E19">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.504164463137131</v>
+        <v>0.414466942711639</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1112,19 +7598,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.853900784226452</v>
+        <v>1.847584606850489</v>
       </c>
       <c r="C20">
-        <v>1.863142160220842</v>
+        <v>1.745694013404234</v>
       </c>
       <c r="D20">
-        <v>1.534714213485524</v>
+        <v>9.874860787307799</v>
       </c>
       <c r="E20">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.4571571130321523</v>
+        <v>0.3749804190645845</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1132,19 +7618,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.853900784226452</v>
+        <v>1.847584606850489</v>
       </c>
       <c r="C21">
-        <v>2.153024276580285</v>
+        <v>2.477369275702242</v>
       </c>
       <c r="D21">
-        <v>1.534714196495221</v>
+        <v>9.874860787346311</v>
       </c>
       <c r="E21">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.4240839697499757</v>
+        <v>0.3115430035557301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1152,19 +7638,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.163589133217397</v>
+        <v>4.475502056349261</v>
       </c>
       <c r="C22">
-        <v>0.6656649382164381</v>
+        <v>0.7641301581292282</v>
       </c>
       <c r="D22">
-        <v>1.534714209784934</v>
+        <v>9.87486078756044</v>
       </c>
       <c r="E22">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6006080017885721</v>
+        <v>0.2571571950927896</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1172,19 +7658,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.163589133217397</v>
+        <v>4.475502056349261</v>
       </c>
       <c r="C23">
-        <v>1.14708087736981</v>
+        <v>1.157578843433154</v>
       </c>
       <c r="D23">
-        <v>1.534714147240579</v>
+        <v>9.874860787438276</v>
       </c>
       <c r="E23">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.5132715611680587</v>
+        <v>0.2391957699730562</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1192,19 +7678,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.163589133217397</v>
+        <v>4.475502056349261</v>
       </c>
       <c r="C24">
-        <v>1.516572050799055</v>
+        <v>1.403360122366351</v>
       </c>
       <c r="D24">
-        <v>1.534714172317992</v>
+        <v>9.874860787417065</v>
       </c>
       <c r="E24">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.4617386656913781</v>
+        <v>0.2291955623502726</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1212,19 +7698,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.163589133217397</v>
+        <v>4.475502056349261</v>
       </c>
       <c r="C25">
-        <v>1.863142160220842</v>
+        <v>1.745694013404234</v>
       </c>
       <c r="D25">
-        <v>1.534714213458604</v>
+        <v>9.874860785915201</v>
       </c>
       <c r="E25">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.4219980171901218</v>
+        <v>0.2165836140638506</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1232,19 +7718,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.163589133217397</v>
+        <v>4.475502056349261</v>
       </c>
       <c r="C26">
-        <v>2.153024276580285</v>
+        <v>2.477369275702242</v>
       </c>
       <c r="D26">
-        <v>1.534714213486086</v>
+        <v>9.874860787965032</v>
       </c>
       <c r="E26">
-        <v>1.000000000000003</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.3936587459161535</v>
+        <v>0.1937917534451805</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +7738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1262,21 +7748,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1287,7 +7773,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
